--- a/Valores.xlsx
+++ b/Valores.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,2022</t>
+          <t>4,9444</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,2022</t>
+          <t>4,9444</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,2022</t>
+          <t>4,9444</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,2022</t>
+          <t>4,9444</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5,2211</t>
+          <t>0,1915</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5,2899</t>
+          <t>0,189</t>
         </is>
       </c>
     </row>
